--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R92ba0cdeba4f42c8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R56f07f9811c24bff"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R56f07f9811c24bff"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Rf5f5a92b76b0439c"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Rf5f5a92b76b0439c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R496a3af05fdb4757"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -28,17 +28,17 @@
     <x:font>
       <x:b/>
       <x:sz val="12"/>
-      <x:color rgb="FFFFFF"/>
+      <x:color rgb="FFFFFFFF"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
@@ -51,13 +51,13 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="4472C4"/>
+        <x:fgColor rgb="FF4472C4"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFF4CC"/>
+        <x:fgColor rgb="FFFFF4CC"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R496a3af05fdb4757"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R8657819e1e804368"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R8657819e1e804368"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Rb156d179d1ea4a53"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Rb156d179d1ea4a53"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Rdc188e87d4034025"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Rdc188e87d4034025"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R5a7e88c0de4c4d19"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R5a7e88c0de4c4d19"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Refcb06204a834faa"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Refcb06204a834faa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R0d9abf5fe36d4f55"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R0d9abf5fe36d4f55"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R23427fa0859a410c"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R23427fa0859a410c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Re192d7affcbb4df6"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Re192d7affcbb4df6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Ra00b19c062d5468c"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Ra00b19c062d5468c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R235fc0e0aaf3472c"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R235fc0e0aaf3472c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Rf4cc8e811c1d42f0"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Rf4cc8e811c1d42f0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Re56644def613411f"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Re56644def613411f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R813834914e0d4714"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R813834914e0d4714"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Rc6ef74a74f834df7"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Rc6ef74a74f834df7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Ra9d1da77656a4d39"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R9fccf231079e44ee"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R3c46b933072a4b8f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R3c46b933072a4b8f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R619aec02fd554475"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R619aec02fd554475"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R558ceab1700748fc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R558ceab1700748fc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Rf56ca71dd5a74dca"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Rf56ca71dd5a74dca"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R7f35779a73a54814"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R7f35779a73a54814"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R888984568d134668"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R888984568d134668"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Ra70c18482a554475"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Ra70c18482a554475"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Rd9d770c690e9404c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Rd9d770c690e9404c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R901e5dc361ba4079"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R901e5dc361ba4079"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R5a548af4eb0640e3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R5a548af4eb0640e3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R1ace5182f62445c1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R1ace5182f62445c1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Reb00481788fe4b20"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -95,6 +95,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:cols>
+    <x:col min="1" max="1" width="10" customWidth="1"/>
+    <x:col min="2" max="2" width="9" customWidth="1"/>
+    <x:col min="3" max="3" width="4" customWidth="1"/>
+    <x:col min="4" max="4" width="9" customWidth="1"/>
+    <x:col min="5" max="5" width="5" customWidth="1"/>
+    <x:col min="6" max="6" width="12" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
     <x:row r="1">
       <x:c r="A1" s="1" t="str">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Reb00481788fe4b20"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Rde6df801a649480b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Rde6df801a649480b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R6926673054544a84"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R6926673054544a84"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Rde4d718bfd7f46ff"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Rde4d718bfd7f46ff"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Rb1032e7ae92349c7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Rb1032e7ae92349c7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R520eaf3f5c4b46d8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R520eaf3f5c4b46d8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R43d72aa794814d13"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R43d72aa794814d13"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R5dce8378aa1f47fa"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R5dce8378aa1f47fa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R608a1417a654463d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R608a1417a654463d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R3160e8b0616b4b31"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R3160e8b0616b4b31"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R2fd0df92f493414f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R2fd0df92f493414f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R935789ce753c4a5c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/30_JsonSparseArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="R935789ce753c4a5c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonSparseImport" sheetId="1" r:id="Re0887eaf364c469d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
